--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_N_last_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_N_last_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD416F0-4BD9-4FA1-BBBF-3C67A0EC821D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D1B99A-5DE4-413D-AD08-166B51894A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{C3710C1B-C502-40A1-861F-1364408AD60F}"/>
   </bookViews>
@@ -539,22 +539,22 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -563,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -604,22 +604,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -680,40 +680,40 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.11627906976744186</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0.11627906976744186</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>0.11627906976744186</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.11627906976744186</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>0.11627906976744186</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -727,40 +727,40 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0.19354838709677419</v>
@@ -792,22 +792,22 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -821,16 +821,16 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0.16129032258064516</v>
@@ -839,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0.19354838709677419</v>
@@ -868,16 +868,16 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0.22580645161290322</v>
@@ -886,22 +886,22 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>0.16129032258064516</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -915,16 +915,16 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.21739130434782608</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.21739130434782608</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0.30434782608695654</v>
@@ -933,22 +933,22 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>0.21739130434782608</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.21739130434782608</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -962,16 +962,16 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0.16129032258064516</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0.19354838709677419</v>
@@ -980,22 +980,22 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.16129032258064516</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.16129032258064516</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1009,16 +1009,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>0.17857142857142858</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1056,40 +1056,40 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>0.29411764705882354</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1103,40 +1103,40 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.7142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0.7142857142857143</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1150,22 +1150,22 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.18518518518518517</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.18518518518518517</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1255,16 +1255,16 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0.15151515151515152</v>
@@ -1273,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="J19">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>0.15151515151515152</v>
@@ -1302,22 +1302,22 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1378,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>0.22727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0.36363636363636365</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1454,10 +1454,10 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>0.15384615384615385</v>
@@ -1472,22 +1472,22 @@
         <v>8</v>
       </c>
       <c r="J24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1623,34 +1623,34 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1722,28 +1722,28 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.15151515151515152</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>0.15151515151515152</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>24</v>
       </c>
       <c r="D37">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0.20833333333333334</v>
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1950,40 +1950,40 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.35714285714285715</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.35714285714285715</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>95</v>
       </c>
       <c r="D43">
-        <v>5.2631578947368418E-2</v>
+        <v>2.1052631578947368E-2</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>5.2631578947368418E-2</v>
@@ -2149,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <v>5.2631578947368418E-2</v>
+        <v>4.2105263157894736E-2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43">
         <v>0.10526315789473684</v>
@@ -2178,34 +2178,34 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>0.2</v>
@@ -2225,16 +2225,16 @@
         <v>24</v>
       </c>
       <c r="D45">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>0.20833333333333334</v>
@@ -2243,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0.25</v>
@@ -2278,28 +2278,28 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>0.22727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0.22727272727272727</v>
@@ -2319,40 +2319,40 @@
         <v>25</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2372,22 +2372,22 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>0.16666666666666666</v>
@@ -2413,22 +2413,22 @@
         <v>36</v>
       </c>
       <c r="D49">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>38</v>
       </c>
       <c r="D50">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>0.18421052631578946</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2513,34 +2513,34 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.11363636363636363</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>0.11363636363636363</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>0.11363636363636363</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>0.11363636363636363</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>0.11363636363636363</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2554,40 +2554,40 @@
         <v>35</v>
       </c>
       <c r="D52">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>0.14285714285714285</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0.14285714285714285</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0.14285714285714285</v>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0.14285714285714285</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2630,34 +2630,34 @@
         <v>38</v>
       </c>
       <c r="D54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54">
         <v>0.13157894736842105</v>
